--- a/数据整理/stocks/A股/上证主板/601077-渝农商行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601077-渝农商行.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -37,10 +43,16 @@
     <t>国泰量化收益灵活配置混合</t>
   </si>
   <si>
+    <t>2.87</t>
+  </si>
+  <si>
     <t>44.52</t>
   </si>
   <si>
     <t>1.66</t>
+  </si>
+  <si>
+    <t>0.0476</t>
   </si>
 </sst>
 </file>
@@ -398,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,24 +432,36 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601077-渝农商行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601077-渝农商行.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>001789</t>
-  </si>
-  <si>
-    <t>国泰量化收益灵活配置混合</t>
-  </si>
-  <si>
-    <t>2.87</t>
-  </si>
-  <si>
-    <t>44.52</t>
-  </si>
-  <si>
-    <t>1.66</t>
-  </si>
-  <si>
-    <t>0.0476</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001334</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010074</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001503</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010075</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601077-渝农商行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601077-渝农商行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601077-渝农商行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601077-渝农商行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601077-渝农商行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601077-渝农商行.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,14 +1129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.34</v>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1124,14 +1167,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.25</v>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1140,13 +1205,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601077-渝农商行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601077-渝农商行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.34</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.34</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.25</v>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1327,13 +1414,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601077-渝农商行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601077-渝农商行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1571,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1582,17 +1583,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1602,14 +1623,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.42</v>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1618,14 +1661,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.34</v>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1634,14 +1699,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.34</v>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1650,14 +1737,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="6">
@@ -1666,13 +1875,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601077-渝农商行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601077-渝农商行.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,95 +456,341 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001789</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰量化收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>44.52</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0476</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -571,7 +817,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -601,36 +847,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001334</t>
+          <t>160613</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方利鑫灵活配置混合A</t>
+          <t>鹏华盛世创新混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23.28</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0675</t>
+          <t>0.1549</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -639,36 +885,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005248</t>
+          <t>011574</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新华沪深300指数增强A</t>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0610</t>
+          <t>0.1471</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -677,32 +923,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010074</t>
+          <t>011575</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方誉隆一年持有期混合A</t>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24.83</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0441</t>
+          <t>0.0653</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -715,36 +961,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009188</t>
+          <t>014133</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华股息精选混合</t>
+          <t>工银中证500六个月持有指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>97.15</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0366</t>
+          <t>0.0295</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -753,36 +999,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008184</t>
+          <t>014134</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>新华沪深300指数增强C</t>
+          <t>工银中证500六个月持有指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0338</t>
+          <t>0.0108</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -791,36 +1037,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001503</t>
+          <t>005960</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方利鑫灵活配置混合C</t>
+          <t>博时量化价值股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>23.28</t>
+          <t>90.69</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -829,244 +1075,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010075</t>
+          <t>005961</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方誉隆一年持有期混合C</t>
+          <t>博时量化价值股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24.83</t>
+          <t>90.69</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011574</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华领航一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1426</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009023</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华稳健回报混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1005</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011575</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华领航一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0635</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009188</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华股息精选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.22</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0352</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1271,7 +1309,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1301,36 +1339,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160613</t>
+          <t>011574</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华盛世创新混合(LOF)</t>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>85.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1549</t>
+          <t>0.1426</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1339,36 +1377,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011574</t>
+          <t>009023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+          <t>鹏华稳健回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.27</t>
+          <t>86.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1471</t>
+          <t>0.1005</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1387,22 +1425,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.27</t>
+          <t>85.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0653</t>
+          <t>0.0635</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1415,150 +1453,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014133</t>
+          <t>009188</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银中证500六个月持有指数增强A</t>
+          <t>鹏华股息精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>80.22</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0295</t>
+          <t>0.0352</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>014134</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银中证500六个月持有指数增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0108</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005960</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时量化价值股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005961</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时量化价值股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1572,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1593,7 +1517,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1623,36 +1547,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160613</t>
+          <t>001334</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华盛世创新混合(LOF)</t>
+          <t>南方利鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>23.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1107</t>
+          <t>0.0675</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1661,32 +1585,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159610</t>
+          <t>005248</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中证500增强策略ETF</t>
+          <t>新华沪深300指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.58</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.78</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0935</t>
+          <t>0.0610</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1699,36 +1623,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011574</t>
+          <t>010074</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+          <t>南方誉隆一年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>24.83</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0705</t>
+          <t>0.0441</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1737,36 +1661,150 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011575</t>
+          <t>009188</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+          <t>鹏华股息精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>97.15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0560</t>
+          <t>0.0366</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001503</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010075</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1780,128 +1818,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.05</v>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601077-渝农商行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601077-渝农商行.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5">
@@ -535,11 +536,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0.34</v>
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -583,6 +600,288 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009384</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014866</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -790,7 +1089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1112,7 +1411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1282,7 +1581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1490,7 +1789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1812,7 +2111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601077-渝农商行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601077-渝农商行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="6">
@@ -552,11 +553,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0.34</v>
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -600,6 +617,136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009384</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014866</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -881,7 +1028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1089,7 +1236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1411,7 +1558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1581,7 +1728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1789,7 +1936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2111,7 +2258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
